--- a/stock_predictor_ai/data/cleaned/FOXA.xlsx
+++ b/stock_predictor_ai/data/cleaned/FOXA.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1579"/>
+  <dimension ref="A1:F1580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32029,6 +32029,26 @@
         <v>238665</v>
       </c>
     </row>
+    <row r="1580">
+      <c r="A1580" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B1580" t="n">
+        <v>55.25500106811523</v>
+      </c>
+      <c r="C1580" t="n">
+        <v>55.40999984741211</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>55.08499908447266</v>
+      </c>
+      <c r="E1580" t="n">
+        <v>55.34000015258789</v>
+      </c>
+      <c r="F1580" t="n">
+        <v>110939</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/FOXA.xlsx
+++ b/stock_predictor_ai/data/cleaned/FOXA.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1580"/>
+  <dimension ref="A1:F1581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32049,6 +32049,26 @@
         <v>110939</v>
       </c>
     </row>
+    <row r="1581">
+      <c r="A1581" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B1581" t="n">
+        <v>55.63000106811523</v>
+      </c>
+      <c r="C1581" t="n">
+        <v>56.59000015258789</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>55.56999969482422</v>
+      </c>
+      <c r="E1581" t="n">
+        <v>55.77000045776367</v>
+      </c>
+      <c r="F1581" t="n">
+        <v>3212100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/FOXA.xlsx
+++ b/stock_predictor_ai/data/cleaned/FOXA.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1581"/>
+  <dimension ref="A1:F1582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32069,6 +32069,26 @@
         <v>3212100</v>
       </c>
     </row>
+    <row r="1582">
+      <c r="A1582" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B1582" t="n">
+        <v>55.58499908447266</v>
+      </c>
+      <c r="C1582" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="D1582" t="n">
+        <v>54.7599983215332</v>
+      </c>
+      <c r="E1582" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="F1582" t="n">
+        <v>431391</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/FOXA.xlsx
+++ b/stock_predictor_ai/data/cleaned/FOXA.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1582"/>
+  <dimension ref="A1:F1583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32089,6 +32089,26 @@
         <v>431391</v>
       </c>
     </row>
+    <row r="1583">
+      <c r="A1583" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B1583" t="n">
+        <v>60.66999816894531</v>
+      </c>
+      <c r="C1583" t="n">
+        <v>60.84000015258789</v>
+      </c>
+      <c r="D1583" t="n">
+        <v>59.19419860839844</v>
+      </c>
+      <c r="E1583" t="n">
+        <v>59.38000106811523</v>
+      </c>
+      <c r="F1583" t="n">
+        <v>1348363</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/FOXA.xlsx
+++ b/stock_predictor_ai/data/cleaned/FOXA.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1583"/>
+  <dimension ref="A1:F1578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32009,106 +32011,6 @@
         <v>5924000</v>
       </c>
     </row>
-    <row r="1579">
-      <c r="A1579" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B1579" t="n">
-        <v>56.02099990844727</v>
-      </c>
-      <c r="C1579" t="n">
-        <v>56.22000122070312</v>
-      </c>
-      <c r="D1579" t="n">
-        <v>55.25500106811523</v>
-      </c>
-      <c r="E1579" t="n">
-        <v>55.33000183105469</v>
-      </c>
-      <c r="F1579" t="n">
-        <v>238665</v>
-      </c>
-    </row>
-    <row r="1580">
-      <c r="A1580" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B1580" t="n">
-        <v>55.25500106811523</v>
-      </c>
-      <c r="C1580" t="n">
-        <v>55.40999984741211</v>
-      </c>
-      <c r="D1580" t="n">
-        <v>55.08499908447266</v>
-      </c>
-      <c r="E1580" t="n">
-        <v>55.34000015258789</v>
-      </c>
-      <c r="F1580" t="n">
-        <v>110939</v>
-      </c>
-    </row>
-    <row r="1581">
-      <c r="A1581" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B1581" t="n">
-        <v>55.63000106811523</v>
-      </c>
-      <c r="C1581" t="n">
-        <v>56.59000015258789</v>
-      </c>
-      <c r="D1581" t="n">
-        <v>55.56999969482422</v>
-      </c>
-      <c r="E1581" t="n">
-        <v>55.77000045776367</v>
-      </c>
-      <c r="F1581" t="n">
-        <v>3212100</v>
-      </c>
-    </row>
-    <row r="1582">
-      <c r="A1582" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B1582" t="n">
-        <v>55.58499908447266</v>
-      </c>
-      <c r="C1582" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="D1582" t="n">
-        <v>54.7599983215332</v>
-      </c>
-      <c r="E1582" t="n">
-        <v>56.25</v>
-      </c>
-      <c r="F1582" t="n">
-        <v>431391</v>
-      </c>
-    </row>
-    <row r="1583">
-      <c r="A1583" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B1583" t="n">
-        <v>60.66999816894531</v>
-      </c>
-      <c r="C1583" t="n">
-        <v>60.84000015258789</v>
-      </c>
-      <c r="D1583" t="n">
-        <v>59.19419860839844</v>
-      </c>
-      <c r="E1583" t="n">
-        <v>59.38000106811523</v>
-      </c>
-      <c r="F1583" t="n">
-        <v>1348363</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
